--- a/mobi_client/mobi_client/mobi_config/excel/013_讯息表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/013_讯息表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D36E87-B901-426A-8A07-385F32C4D084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="14340" activeTab="1"/>
+    <workbookView xWindow="-26850" yWindow="0" windowWidth="13500" windowHeight="20835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contact|联系人表" sheetId="4" r:id="rId1"/>
@@ -16,17 +22,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ADMIN</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>0为默认解锁
@@ -39,19 +46,20 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ADMIN</author>
     <author>DELL</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>ADMIN:</t>
@@ -60,6 +68,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -68,13 +77,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>ADMIN:</t>
@@ -83,6 +93,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -90,12 +101,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="1">
+    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">没有条件（不填默认） = 0,
@@ -113,12 +125,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>type = 0 不填，
@@ -131,12 +144,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>数组形式，和前者一一对应
@@ -149,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
   <si>
     <t>角色id</t>
   </si>
@@ -231,6 +245,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -241,6 +256,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -416,14 +432,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,6 +446,7 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -443,170 +454,53 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -627,13 +521,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.399456770531327"/>
+        <fgColor theme="3" tint="0.39942625202185128"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,7 +539,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.25"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,188 +549,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -859,274 +573,32 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1144,87 +616,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1511,21 +936,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1545,7 +971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1565,7 +991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1585,124 +1011,112 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="7" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7">
         <v>15</v>
       </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>13</v>
-      </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>101</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:N19"/>
   <sheetViews>
@@ -1710,25 +1124,25 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.625" style="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="16.4416666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="38.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="17.8833333333333" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.625" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
     <col min="6" max="6" width="25" style="1" customWidth="1"/>
     <col min="7" max="8" width="21.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6333333333333" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1333333333333" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="1" customWidth="1"/>
     <col min="12" max="12" width="23.125" customWidth="1"/>
     <col min="13" max="13" width="7.75" style="1" customWidth="1"/>
     <col min="14" max="14" width="21.25" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1772,7 +1186,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1816,7 +1230,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1860,7 +1274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
         <v>14</v>
@@ -1886,7 +1300,7 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:13">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1912,7 +1326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:13">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1944,7 +1358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:13">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1976,7 +1390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:13">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -2008,7 +1422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:13">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -2040,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:13">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -2072,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:13">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -2104,7 +1518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:13">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -2136,7 +1550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:13">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -2168,7 +1582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:13">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -2200,7 +1614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:13">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2232,7 +1646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:13">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2271,7 +1685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2310,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2349,7 +1763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2388,15 +1802,15 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2404,10 +1818,10 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/mobi_client/mobi_client/mobi_config/excel/013_讯息表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/013_讯息表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D36E87-B901-426A-8A07-385F32C4D084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEB1701-46C0-42D9-BF21-5BE0DB48735E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26850" yWindow="0" windowWidth="13500" windowHeight="20835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24900" yWindow="1455" windowWidth="13500" windowHeight="16545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contact|联系人表" sheetId="4" r:id="rId1"/>

--- a/mobi_client/mobi_client/mobi_config/excel/013_讯息表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/013_讯息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEB1701-46C0-42D9-BF21-5BE0DB48735E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6095A13-665D-4126-B281-905B5C0F1E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24900" yWindow="1455" windowWidth="13500" windowHeight="16545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contact|联系人表" sheetId="4" r:id="rId1"/>
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="82">
   <si>
     <t>角色id</t>
   </si>
@@ -205,12 +205,6 @@
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>LimitState</t>
-  </si>
-  <si>
-    <t>IN:[0;1]</t>
   </si>
   <si>
     <t>凯瑟琳</t>
@@ -297,6 +291,9 @@
     <t>判定为不回复时间（S）</t>
   </si>
   <si>
+    <t>完成短信后获得的任务</t>
+  </si>
+  <si>
     <t>是否紧急</t>
   </si>
   <si>
@@ -327,6 +324,9 @@
     <t>endTime</t>
   </si>
   <si>
+    <t>quest</t>
+  </si>
+  <si>
     <t>urgent</t>
   </si>
   <si>
@@ -336,9 +336,6 @@
     <t>aint</t>
   </si>
   <si>
-    <t>IN:[0;1;2;3;4;5;10]</t>
-  </si>
-  <si>
     <t>询问凯瑟琳怎么加入的STS</t>
   </si>
   <si>
@@ -411,6 +408,18 @@
     <t>xt_wuliu_message</t>
   </si>
   <si>
+    <t>致命拥抱</t>
+  </si>
+  <si>
+    <t>xt_hug_start</t>
+  </si>
+  <si>
+    <t>迷醉金钞</t>
+  </si>
+  <si>
+    <t>xt_chat_mizui</t>
+  </si>
+  <si>
     <t>社畜支线</t>
   </si>
   <si>
@@ -421,19 +430,13 @@
   </si>
   <si>
     <t>chat_qiqiu</t>
-  </si>
-  <si>
-    <t>致命拥抱</t>
-  </si>
-  <si>
-    <t>xt_hug_start</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,14 +488,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -500,7 +495,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -528,12 +523,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,11 +567,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -601,37 +590,28 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -946,7 +926,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1016,13 +996,13 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1036,13 +1016,13 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1056,13 +1036,13 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1076,13 +1056,13 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1096,20 +1076,20 @@
         <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -1118,10 +1098,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1132,78 +1112,82 @@
     <col min="4" max="4" width="38.625" customWidth="1"/>
     <col min="5" max="5" width="17.875" customWidth="1"/>
     <col min="6" max="6" width="25" style="1" customWidth="1"/>
-    <col min="7" max="8" width="21.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
     <col min="9" max="9" width="10.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.625" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="23.125" customWidth="1"/>
-    <col min="13" max="13" width="7.75" style="1" customWidth="1"/>
-    <col min="14" max="14" width="21.25" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="12" max="13" width="23.125" customWidth="1"/>
+    <col min="14" max="14" width="7.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="21.25" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="O1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>10</v>
@@ -1212,25 +1196,28 @@
         <v>11</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1267,132 +1254,145 @@
       <c r="L3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="7"/>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="6">
+        <v>60</v>
+      </c>
       <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6">
         <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="D5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="7">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" s="9">
+        <v>53</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="L5" s="6">
         <v>60</v>
       </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="M5" s="6"/>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>31</v>
+      </c>
+      <c r="L6" s="6">
+        <v>60</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="9">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="10">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="H7" s="1">
+        <v>31</v>
+      </c>
+      <c r="L7" s="6">
+        <v>60</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
         <v>5</v>
-      </c>
-      <c r="H6" s="1">
-        <v>2</v>
-      </c>
-      <c r="L6" s="9">
-        <v>60</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7" s="9">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>13</v>
-      </c>
-      <c r="L7" s="9">
-        <v>60</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>4</v>
       </c>
       <c r="B8" s="1">
         <v>12</v>
@@ -1400,63 +1400,65 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="D8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="7">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
         <v>2</v>
       </c>
-      <c r="H8" s="1">
+      <c r="L8" s="6">
+        <v>60</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
         <v>13</v>
       </c>
-      <c r="L8" s="9">
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="E9" s="7">
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="6">
         <v>60</v>
       </c>
-      <c r="G9" s="1">
-        <v>3</v>
-      </c>
-      <c r="H9" s="1">
-        <v>2</v>
-      </c>
-      <c r="L9" s="9">
-        <v>60</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="M9" s="6"/>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13</v>
@@ -1464,31 +1466,32 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="10">
+      <c r="D10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="7">
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="L10" s="9">
+        <v>3</v>
+      </c>
+      <c r="L10" s="6">
         <v>60</v>
       </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="M10" s="6"/>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13</v>
@@ -1496,159 +1499,173 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="10">
+      <c r="D11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="7">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G11" s="1">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1">
         <v>5</v>
       </c>
-      <c r="H11" s="1">
+      <c r="L11" s="6">
+        <v>60</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6">
+        <v>101</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="1">
         <v>3</v>
-      </c>
-      <c r="L11" s="9">
-        <v>60</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="10">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="1">
-        <v>10</v>
       </c>
       <c r="H12" s="1">
         <v>5</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="6">
         <v>60</v>
       </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="M12" s="6"/>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6">
+        <v>101</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>11</v>
+      </c>
+      <c r="L13" s="6">
+        <v>60</v>
+      </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6">
+        <v>101</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="L14" s="6">
+        <v>60</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>101</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="9">
-        <v>101</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="10">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="1">
-        <v>3</v>
-      </c>
-      <c r="H13" s="1">
+      <c r="H15" s="1">
         <v>5</v>
       </c>
-      <c r="L13" s="9">
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
         <v>60</v>
       </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
-        <v>11</v>
-      </c>
-      <c r="B14" s="9">
-        <v>101</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="10">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="1">
-        <v>2</v>
-      </c>
-      <c r="H14" s="1">
-        <v>11</v>
-      </c>
-      <c r="L14" s="9">
-        <v>60</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
-        <v>12</v>
-      </c>
-      <c r="B15" s="9">
-        <v>101</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="10">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="1">
-        <v>4</v>
-      </c>
-      <c r="H15" s="1">
-        <v>2</v>
-      </c>
-      <c r="L15" s="9">
-        <v>60</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="6">
+        <v>999999</v>
+      </c>
+      <c r="M15" s="6">
+        <v>3004</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>101</v>
@@ -1656,153 +1673,161 @@
       <c r="C16" s="1">
         <v>0</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="10"/>
+      <c r="D16" t="s">
+        <v>74</v>
+      </c>
       <c r="F16" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G16" s="1">
         <v>10</v>
       </c>
       <c r="H16" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
       </c>
       <c r="J16" s="1">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="K16" s="1">
         <v>1</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="6">
         <v>999999</v>
       </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M16" s="6">
+        <v>3009</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="1">
+        <v>10</v>
+      </c>
+      <c r="H17" s="1">
+        <v>11</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>20</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="6">
+        <v>999999</v>
+      </c>
+      <c r="M17" s="6">
+        <v>3023</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B20" s="1">
         <v>101</v>
       </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="1">
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="1">
         <v>2</v>
       </c>
-      <c r="H17" s="1">
-        <v>13</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
+      <c r="H20" s="1">
+        <v>31</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
         <v>300</v>
       </c>
-      <c r="K17" s="1">
-        <v>1</v>
-      </c>
-      <c r="L17" s="9">
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="6">
         <v>999999</v>
       </c>
-      <c r="M17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1">
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1">
         <v>101</v>
       </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="1">
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="1">
         <v>2</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H21" s="1">
         <v>3002</v>
       </c>
-      <c r="I18" s="1">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1">
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
         <v>600</v>
       </c>
-      <c r="K18" s="1">
-        <v>1</v>
-      </c>
-      <c r="L18" s="9">
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="L21" s="6">
         <v>999999</v>
       </c>
-      <c r="M18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="1">
-        <v>16</v>
-      </c>
-      <c r="B19" s="1">
-        <v>101</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" s="1">
-        <v>10</v>
-      </c>
-      <c r="H19" s="1">
-        <v>8</v>
-      </c>
-      <c r="I19" s="1">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1">
-        <v>20</v>
-      </c>
-      <c r="K19" s="1">
-        <v>1</v>
-      </c>
-      <c r="L19" s="9">
-        <v>999999</v>
-      </c>
-      <c r="M19" s="1">
+      <c r="M21" s="6">
+        <v>3003</v>
+      </c>
+      <c r="N21" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
@@ -1820,7 +1845,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/mobi_client/mobi_client/mobi_config/excel/013_讯息表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/013_讯息表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6095A13-665D-4126-B281-905B5C0F1E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="17325" windowHeight="25140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Contact|联系人表" sheetId="4" r:id="rId1"/>
@@ -22,18 +16,17 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ADMIN</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>0为默认解锁
@@ -46,20 +39,19 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ADMIN</author>
     <author>DELL</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>ADMIN:</t>
@@ -68,7 +60,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -77,14 +68,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>ADMIN:</t>
@@ -93,7 +83,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -101,13 +90,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="G2" authorId="1">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">没有条件（不填默认） = 0,
@@ -125,13 +113,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="H2" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>type = 0 不填，
@@ -144,13 +131,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>数组形式，和前者一一对应
@@ -163,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="114">
   <si>
     <t>角色id</t>
   </si>
@@ -205,6 +191,12 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>LimitState</t>
+  </si>
+  <si>
+    <t>IN:[0;1]</t>
   </si>
   <si>
     <t>凯瑟琳</t>
@@ -239,7 +231,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -250,7 +241,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -336,13 +326,22 @@
     <t>aint</t>
   </si>
   <si>
+    <t>ID_OR_NULL:Quest</t>
+  </si>
+  <si>
+    <t>询问稳定剂是什么</t>
+  </si>
+  <si>
+    <t>chat_kaiselin_0</t>
+  </si>
+  <si>
     <t>询问凯瑟琳怎么加入的STS</t>
   </si>
   <si>
     <t>chat_kaiselin_1</t>
   </si>
   <si>
-    <t>询问404对于自己身体的影响</t>
+    <t>询问自己身体的情况</t>
   </si>
   <si>
     <t>chat_kaiselin_2</t>
@@ -354,6 +353,18 @@
     <t>chat_kaiselin_3</t>
   </si>
   <si>
+    <t>关于过敏孩子的后续</t>
+  </si>
+  <si>
+    <t>chat_kaiselin_4</t>
+  </si>
+  <si>
+    <t>问候与夸奖</t>
+  </si>
+  <si>
+    <t>chat_niefei_0</t>
+  </si>
+  <si>
     <t>关于聂飞的过去……</t>
   </si>
   <si>
@@ -366,25 +377,61 @@
     <t>chat_niefei_2</t>
   </si>
   <si>
+    <t>关于神秘组织……</t>
+  </si>
+  <si>
+    <t>chat_niefei_3</t>
+  </si>
+  <si>
+    <t>询问工作</t>
+  </si>
+  <si>
+    <t>chat_tuling_0</t>
+  </si>
+  <si>
     <t>向涂凌卖萌……</t>
   </si>
   <si>
     <t>chat_tuling_1</t>
   </si>
   <si>
-    <t>询问入职情况</t>
+    <t>关于土山奥……</t>
   </si>
   <si>
     <t>chat_tuling_2</t>
   </si>
   <si>
-    <t>关于顶石的安防系统……</t>
+    <t>关于顶石的安防系统</t>
   </si>
   <si>
     <t>chat_tuling_3</t>
   </si>
   <si>
-    <t>关于STS……</t>
+    <t>关于STS的生活</t>
+  </si>
+  <si>
+    <t>chat_tushanao_1</t>
+  </si>
+  <si>
+    <t>关于冰酒的下落</t>
+  </si>
+  <si>
+    <t>chat_tushanao_2</t>
+  </si>
+  <si>
+    <t>关于土山奥的新能力</t>
+  </si>
+  <si>
+    <t>chat_tushanao_3</t>
+  </si>
+  <si>
+    <t>工作汇报</t>
+  </si>
+  <si>
+    <t>chat_duheng_0</t>
+  </si>
+  <si>
+    <t>了解STS……</t>
   </si>
   <si>
     <t>chat_duheng_1</t>
@@ -396,10 +443,43 @@
     <t>chat_duheng_2</t>
   </si>
   <si>
-    <t>关于顶石科技……</t>
+    <t>关于顶石的异质物……</t>
   </si>
   <si>
     <t>chat_duheng_3</t>
+  </si>
+  <si>
+    <t>chat_duheng_4</t>
+  </si>
+  <si>
+    <t>可以领取物资</t>
+  </si>
+  <si>
+    <t>chat_wuzi</t>
+  </si>
+  <si>
+    <t>第二天收到</t>
+  </si>
+  <si>
+    <t>chat_day2</t>
+  </si>
+  <si>
+    <t>第四天收到</t>
+  </si>
+  <si>
+    <t>chat_day4</t>
+  </si>
+  <si>
+    <t>隔两天收到</t>
+  </si>
+  <si>
+    <t>chat_daypass</t>
+  </si>
+  <si>
+    <t>今夕养老院</t>
+  </si>
+  <si>
+    <t>maze201_part0</t>
   </si>
   <si>
     <t>藤江物流支线</t>
@@ -435,8 +515,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,7 +535,6 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -457,45 +542,170 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -516,13 +726,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39942625202185128"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.399426252021851"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,12 +750,186 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -562,12 +952,254 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -578,16 +1210,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -596,40 +1237,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -916,22 +1592,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -951,7 +1626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -971,7 +1646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -991,29 +1666,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4">
+    <row r="4" spans="1:6">
+      <c r="A4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
         <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -1028,12 +1695,12 @@
         <v>1</v>
       </c>
       <c r="F5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
         <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -1048,12 +1715,12 @@
         <v>1</v>
       </c>
       <c r="F6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
         <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -1068,12 +1735,12 @@
         <v>1</v>
       </c>
       <c r="F7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
         <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>101</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
@@ -1085,26 +1752,46 @@
         <v>23</v>
       </c>
       <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.625" style="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -1123,71 +1810,71 @@
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="N1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>10</v>
@@ -1196,28 +1883,28 @@
         <v>11</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="O2" s="11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="N2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1237,10 +1924,10 @@
         <v>13</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>12</v>
@@ -1257,456 +1944,430 @@
       <c r="M3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="13" t="s">
         <v>12</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6">
+    <row r="4" customFormat="1" spans="1:14">
+      <c r="A4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" customFormat="1" spans="1:15">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9">
         <v>11</v>
       </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="6">
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="10">
+        <f>C5</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="9">
         <v>60</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="1">
+      <c r="M5" s="9"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="10">
+        <f t="shared" ref="E6:E25" si="0">C6</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>11</v>
+      </c>
+      <c r="L6" s="9">
+        <v>60</v>
+      </c>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="9">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="1">
-        <v>5</v>
-      </c>
-      <c r="H5" s="1">
-        <v>2</v>
-      </c>
-      <c r="L5" s="6">
-        <v>60</v>
-      </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>31</v>
-      </c>
-      <c r="L6" s="6">
-        <v>60</v>
-      </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
+      <c r="D7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="10"/>
       <c r="F7" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
       </c>
       <c r="H7" s="1">
+        <v>11</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>120</v>
+      </c>
+      <c r="K7" s="1">
+        <v>10</v>
+      </c>
+      <c r="L7" s="9">
+        <v>60</v>
+      </c>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="9">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
         <v>31</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L8" s="9">
         <v>60</v>
       </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="1">
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>21</v>
+      </c>
+      <c r="L9" s="9">
+        <v>60</v>
+      </c>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="9">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="D10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>529</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>60</v>
+      </c>
+      <c r="K10" s="1">
+        <v>10</v>
+      </c>
+      <c r="L10" s="9">
+        <v>60</v>
+      </c>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
         <v>12</v>
       </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="1">
-        <v>3</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="1">
         <v>2</v>
       </c>
-      <c r="L8" s="6">
+      <c r="H11" s="1">
+        <v>11</v>
+      </c>
+      <c r="L11" s="9">
         <v>60</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>31</v>
+      </c>
+      <c r="L12" s="9">
         <v>60</v>
       </c>
-      <c r="E9" s="7">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="L9" s="6">
-        <v>60</v>
-      </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="7">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5</v>
-      </c>
-      <c r="H10" s="1">
-        <v>3</v>
-      </c>
-      <c r="L10" s="6">
-        <v>60</v>
-      </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="1">
-        <v>10</v>
-      </c>
-      <c r="H11" s="1">
-        <v>5</v>
-      </c>
-      <c r="L11" s="6">
-        <v>60</v>
-      </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6">
-        <v>101</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="7">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="1">
-        <v>3</v>
-      </c>
-      <c r="H12" s="1">
-        <v>5</v>
-      </c>
-      <c r="L12" s="6">
-        <v>60</v>
-      </c>
-      <c r="M12" s="6"/>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6">
-        <v>101</v>
+      <c r="B13" s="1">
+        <v>12</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="D13" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="10">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G13" s="1">
         <v>2</v>
       </c>
       <c r="H13" s="1">
+        <v>21</v>
+      </c>
+      <c r="L13" s="9">
+        <v>60</v>
+      </c>
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1">
         <v>11</v>
       </c>
-      <c r="L13" s="6">
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>10</v>
+      </c>
+      <c r="K14" s="1">
+        <v>10</v>
+      </c>
+      <c r="L14" s="9">
         <v>60</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1">
+        <v>11</v>
+      </c>
+      <c r="L15" s="9">
+        <v>60</v>
+      </c>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="6">
-        <v>101</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="1">
-        <v>4</v>
-      </c>
-      <c r="H14" s="1">
+      <c r="B16" s="1">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="1">
         <v>2</v>
       </c>
-      <c r="L14" s="6">
+      <c r="H16" s="1">
+        <v>21</v>
+      </c>
+      <c r="L16" s="9">
         <v>60</v>
       </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
+      <c r="M16" s="9"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
         <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>101</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="1">
-        <v>10</v>
-      </c>
-      <c r="H15" s="1">
-        <v>5</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1">
-        <v>60</v>
-      </c>
-      <c r="K15" s="1">
-        <v>1</v>
-      </c>
-      <c r="L15" s="6">
-        <v>999999</v>
-      </c>
-      <c r="M15" s="6">
-        <v>3004</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>101</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="1">
-        <v>10</v>
-      </c>
-      <c r="H16" s="1">
-        <v>8</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
-        <v>20</v>
-      </c>
-      <c r="K16" s="1">
-        <v>1</v>
-      </c>
-      <c r="L16" s="6">
-        <v>999999</v>
-      </c>
-      <c r="M16" s="6">
-        <v>3009</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="1">
-        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13</v>
@@ -1714,128 +2375,683 @@
       <c r="C17" s="1">
         <v>0</v>
       </c>
-      <c r="D17" t="s">
-        <v>76</v>
-      </c>
+      <c r="D17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="10"/>
       <c r="F17" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G17" s="1">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>31</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>150</v>
+      </c>
+      <c r="K17" s="1">
         <v>10</v>
       </c>
-      <c r="H17" s="1">
-        <v>11</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
-        <v>20</v>
-      </c>
-      <c r="K17" s="1">
-        <v>1</v>
-      </c>
-      <c r="L17" s="6">
-        <v>999999</v>
-      </c>
-      <c r="M17" s="6">
-        <v>3023</v>
-      </c>
-      <c r="N17" s="1">
+      <c r="L17" s="9">
+        <v>60</v>
+      </c>
+      <c r="M17" s="9"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D18" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>21</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>10</v>
+      </c>
+      <c r="K18" s="1">
+        <v>10</v>
+      </c>
+      <c r="L18" s="9">
+        <v>60</v>
+      </c>
+      <c r="M18" s="9"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>21</v>
+      </c>
+      <c r="L19" s="9">
+        <v>60</v>
+      </c>
+      <c r="M19" s="9"/>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="C20" s="1">
-        <v>0</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="F20" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G20" s="1">
         <v>2</v>
       </c>
       <c r="H20" s="1">
-        <v>31</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1">
-        <v>300</v>
-      </c>
-      <c r="K20" s="1">
-        <v>1</v>
-      </c>
-      <c r="L20" s="6">
-        <v>999999</v>
-      </c>
-      <c r="M20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+      <c r="L20" s="9">
+        <v>60</v>
+      </c>
+      <c r="M20" s="9"/>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
-        <v>14</v>
-      </c>
-      <c r="B21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="9">
         <v>101</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="7"/>
+      <c r="D21" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="10"/>
       <c r="F21" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>21</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>300</v>
+      </c>
+      <c r="K21" s="1">
+        <v>10</v>
+      </c>
+      <c r="L21" s="9">
+        <v>60</v>
+      </c>
+      <c r="M21" s="9"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="9">
+        <v>101</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="1">
         <v>2</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H22" s="1">
+        <v>11</v>
+      </c>
+      <c r="L22" s="9">
+        <v>60</v>
+      </c>
+      <c r="M22" s="9"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="9">
+        <v>101</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>11</v>
+      </c>
+      <c r="L23" s="9">
+        <v>60</v>
+      </c>
+      <c r="M23" s="9"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="9">
+        <v>101</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2</v>
+      </c>
+      <c r="H24" s="1">
+        <v>31</v>
+      </c>
+      <c r="L24" s="9">
+        <v>60</v>
+      </c>
+      <c r="M24" s="9"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="B25" s="9">
+        <v>101</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2</v>
+      </c>
+      <c r="H25" s="1">
+        <v>21</v>
+      </c>
+      <c r="L25" s="9">
+        <v>60</v>
+      </c>
+      <c r="M25" s="9"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1">
+        <v>22</v>
+      </c>
+      <c r="B26" s="9">
+        <v>101</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="1">
+        <v>10</v>
+      </c>
+      <c r="H26" s="1">
+        <v>5</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>10</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="9">
+        <v>60</v>
+      </c>
+      <c r="M26" s="9"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1">
+        <v>23</v>
+      </c>
+      <c r="B27" s="9">
+        <v>13</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="1">
+        <v>3</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>10</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
+      <c r="L27" s="9">
+        <v>60</v>
+      </c>
+      <c r="M27" s="9"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="1">
+        <v>24</v>
+      </c>
+      <c r="B28" s="9">
+        <v>11</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="1">
+        <v>3</v>
+      </c>
+      <c r="H28" s="1">
+        <v>4</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>10</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1</v>
+      </c>
+      <c r="L28" s="9">
+        <v>60</v>
+      </c>
+      <c r="M28" s="9"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1">
+        <v>25</v>
+      </c>
+      <c r="B29" s="9">
+        <v>12</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" s="1">
+        <v>4</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1">
+        <v>10</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1</v>
+      </c>
+      <c r="L29" s="9">
+        <v>60</v>
+      </c>
+      <c r="M29" s="9"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1">
+        <v>13</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" s="1">
+        <v>10</v>
+      </c>
+      <c r="H30" s="1">
+        <v>5</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1">
+        <v>900</v>
+      </c>
+      <c r="K30" s="1">
+        <v>2</v>
+      </c>
+      <c r="L30" s="9">
+        <v>999999</v>
+      </c>
+      <c r="M30" s="9">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1">
+        <v>101</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" s="1">
+        <v>10</v>
+      </c>
+      <c r="H31" s="1">
+        <v>7</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1">
+        <v>3600</v>
+      </c>
+      <c r="K31" s="1">
+        <v>3</v>
+      </c>
+      <c r="L31" s="9">
+        <v>999999</v>
+      </c>
+      <c r="M31" s="9">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="1">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1">
+        <v>101</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" s="1">
+        <v>10</v>
+      </c>
+      <c r="H32" s="1">
+        <v>12</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1200</v>
+      </c>
+      <c r="K32" s="1">
+        <v>4</v>
+      </c>
+      <c r="L32" s="9">
+        <v>999999</v>
+      </c>
+      <c r="M32" s="9">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="1">
+        <v>29</v>
+      </c>
+      <c r="B33" s="1">
+        <v>13</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" s="1">
+        <v>10</v>
+      </c>
+      <c r="H33" s="1">
+        <v>17</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1">
+        <v>300</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1</v>
+      </c>
+      <c r="L33" s="9">
+        <v>999999</v>
+      </c>
+      <c r="M33" s="9">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="1">
+        <v>14</v>
+      </c>
+      <c r="B36" s="1">
+        <v>101</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G36" s="1">
+        <v>2</v>
+      </c>
+      <c r="H36" s="1">
+        <v>31</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1</v>
+      </c>
+      <c r="J36" s="1">
+        <v>300</v>
+      </c>
+      <c r="K36" s="1">
+        <v>1</v>
+      </c>
+      <c r="L36" s="9">
+        <v>999999</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="1">
+        <v>14</v>
+      </c>
+      <c r="B37" s="1">
+        <v>101</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G37" s="1">
+        <v>2</v>
+      </c>
+      <c r="H37" s="1">
         <v>3002</v>
       </c>
-      <c r="I21" s="1">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1">
+      <c r="I37" s="1">
+        <v>1</v>
+      </c>
+      <c r="J37" s="1">
         <v>600</v>
       </c>
-      <c r="K21" s="1">
-        <v>1</v>
-      </c>
-      <c r="L21" s="6">
+      <c r="K37" s="1">
+        <v>1</v>
+      </c>
+      <c r="L37" s="9">
         <v>999999</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M37" s="9">
         <v>3003</v>
       </c>
-      <c r="N21" s="1">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1843,10 +3059,10 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/mobi_client/mobi_client/mobi_config/excel/013_讯息表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/013_讯息表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="17325" windowHeight="25140" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="14340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Contact|联系人表" sheetId="4" r:id="rId1"/>
@@ -1788,7 +1788,7 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1987,8 +1987,7 @@
         <v>53</v>
       </c>
       <c r="E5" s="10">
-        <f>C5</f>
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>54</v>
@@ -2023,8 +2022,7 @@
         <v>55</v>
       </c>
       <c r="E6" s="10">
-        <f t="shared" ref="E6:E25" si="0">C6</f>
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>56</v>
@@ -2119,8 +2117,7 @@
         <v>61</v>
       </c>
       <c r="E9" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>62</v>
@@ -2187,8 +2184,7 @@
         <v>65</v>
       </c>
       <c r="E11" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>66</v>
@@ -2218,8 +2214,7 @@
         <v>67</v>
       </c>
       <c r="E12" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>68</v>
@@ -2249,8 +2244,7 @@
         <v>69</v>
       </c>
       <c r="E13" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>70</v>
@@ -2317,8 +2311,7 @@
         <v>73</v>
       </c>
       <c r="E15" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>74</v>
@@ -2348,8 +2341,7 @@
         <v>75</v>
       </c>
       <c r="E16" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>76</v>
@@ -2453,8 +2445,7 @@
         <v>81</v>
       </c>
       <c r="E19" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>82</v>
@@ -2484,8 +2475,7 @@
         <v>83</v>
       </c>
       <c r="E20" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>84</v>
@@ -2552,8 +2542,7 @@
         <v>87</v>
       </c>
       <c r="E22" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>88</v>
@@ -2583,8 +2572,7 @@
         <v>89</v>
       </c>
       <c r="E23" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>90</v>
@@ -2614,8 +2602,7 @@
         <v>91</v>
       </c>
       <c r="E24" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>92</v>
@@ -2645,8 +2632,7 @@
         <v>75</v>
       </c>
       <c r="E25" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>93</v>
@@ -2831,7 +2817,7 @@
         <v>10</v>
       </c>
       <c r="H30" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I30" s="1">
         <v>1</v>
@@ -2870,7 +2856,7 @@
         <v>10</v>
       </c>
       <c r="H31" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I31" s="1">
         <v>1</v>

--- a/mobi_client/mobi_client/mobi_config/excel/013_讯息表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/013_讯息表.xlsx
@@ -1788,7 +1788,7 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2675,7 +2675,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K26" s="1">
         <v>1</v>
@@ -2823,7 +2823,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="1">
-        <v>900</v>
+        <v>30</v>
       </c>
       <c r="K30" s="1">
         <v>2</v>
@@ -2862,7 +2862,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="1">
-        <v>3600</v>
+        <v>30</v>
       </c>
       <c r="K31" s="1">
         <v>3</v>
@@ -2900,7 +2900,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="1">
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="K32" s="1">
         <v>4</v>
@@ -2938,7 +2938,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="1">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="K33" s="1">
         <v>1</v>

--- a/mobi_client/mobi_client/mobi_config/excel/013_讯息表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/013_讯息表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58692DBA-525B-4951-9983-AC266DFFE84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="14340" activeTab="1"/>
+    <workbookView xWindow="45" yWindow="9495" windowWidth="17790" windowHeight="18405" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contact|联系人表" sheetId="4" r:id="rId1"/>
@@ -16,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ADMIN</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -39,13 +45,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ADMIN</author>
     <author>DELL</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -68,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -90,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="1">
+    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -113,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -131,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -326,9 +332,6 @@
     <t>aint</t>
   </si>
   <si>
-    <t>ID_OR_NULL:Quest</t>
-  </si>
-  <si>
     <t>询问稳定剂是什么</t>
   </si>
   <si>
@@ -510,19 +513,17 @@
   </si>
   <si>
     <t>chat_qiqiu</t>
+  </si>
+  <si>
+    <t>ID:Quest$Null</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,144 +554,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -704,8 +568,29 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -726,13 +611,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.399426252021851"/>
+        <fgColor theme="3" tint="0.39939573351237523"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,188 +633,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -952,274 +657,32 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1237,75 +700,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1592,11 +1014,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -1604,9 +1027,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1626,7 +1049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1646,7 +1069,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1666,7 +1089,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
@@ -1678,7 +1101,7 @@
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>11</v>
       </c>
@@ -1698,7 +1121,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>12</v>
       </c>
@@ -1718,7 +1141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>13</v>
       </c>
@@ -1738,7 +1161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>15</v>
       </c>
@@ -1758,7 +1181,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>101</v>
       </c>
@@ -1776,22 +1199,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.625" style="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -1810,7 +1233,7 @@
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1857,7 +1280,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1904,7 +1327,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1951,7 +1374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:14">
+    <row r="4" spans="1:15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
@@ -1968,12 +1391,12 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
-      <c r="M4" s="6" t="s">
-        <v>52</v>
+      <c r="M4" s="15" t="s">
+        <v>113</v>
       </c>
       <c r="N4" s="7"/>
     </row>
-    <row r="5" customFormat="1" spans="1:15">
+    <row r="5" spans="1:15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1984,13 +1407,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="10">
         <v>99</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5" s="1">
         <v>2</v>
@@ -2008,7 +1431,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -2019,13 +1442,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" s="10">
         <v>99</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -2038,7 +1461,7 @@
       </c>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -2049,11 +1472,11 @@
         <v>0</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
@@ -2075,7 +1498,7 @@
       </c>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -2086,11 +1509,11 @@
         <v>0</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G8" s="1">
         <v>2</v>
@@ -2103,7 +1526,7 @@
       </c>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -2114,13 +1537,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9" s="10">
         <v>99</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
@@ -2133,7 +1556,7 @@
       </c>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -2144,11 +1567,11 @@
         <v>0</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>
@@ -2170,7 +1593,7 @@
       </c>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -2181,13 +1604,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" s="10">
         <v>99</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G11" s="1">
         <v>2</v>
@@ -2200,7 +1623,7 @@
       </c>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -2211,13 +1634,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="10">
         <v>99</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G12" s="1">
         <v>2</v>
@@ -2230,7 +1653,7 @@
       </c>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -2241,13 +1664,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" s="10">
         <v>99</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G13" s="1">
         <v>2</v>
@@ -2260,7 +1683,7 @@
       </c>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -2271,11 +1694,11 @@
         <v>0</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G14" s="1">
         <v>2</v>
@@ -2297,7 +1720,7 @@
       </c>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -2308,13 +1731,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" s="10">
         <v>99</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G15" s="1">
         <v>2</v>
@@ -2327,7 +1750,7 @@
       </c>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -2338,13 +1761,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" s="10">
         <v>99</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G16" s="1">
         <v>2</v>
@@ -2357,7 +1780,7 @@
       </c>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -2368,11 +1791,11 @@
         <v>0</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G17" s="1">
         <v>2</v>
@@ -2394,7 +1817,7 @@
       </c>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -2405,11 +1828,11 @@
         <v>0</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G18" s="1">
         <v>2</v>
@@ -2431,7 +1854,7 @@
       </c>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -2442,13 +1865,13 @@
         <v>1</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" s="10">
         <v>99</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G19" s="1">
         <v>2</v>
@@ -2461,7 +1884,7 @@
       </c>
       <c r="M19" s="9"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -2472,13 +1895,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E20" s="10">
         <v>99</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G20" s="1">
         <v>2</v>
@@ -2491,7 +1914,7 @@
       </c>
       <c r="M20" s="9"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -2502,11 +1925,11 @@
         <v>0</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -2528,7 +1951,7 @@
       </c>
       <c r="M21" s="9"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -2539,13 +1962,13 @@
         <v>1</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E22" s="10">
         <v>99</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G22" s="1">
         <v>2</v>
@@ -2558,7 +1981,7 @@
       </c>
       <c r="M22" s="9"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -2569,13 +1992,13 @@
         <v>1</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E23" s="10">
         <v>99</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G23" s="1">
         <v>2</v>
@@ -2588,7 +2011,7 @@
       </c>
       <c r="M23" s="9"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -2599,13 +2022,13 @@
         <v>1</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E24" s="10">
         <v>99</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G24" s="1">
         <v>2</v>
@@ -2618,7 +2041,7 @@
       </c>
       <c r="M24" s="9"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -2629,13 +2052,13 @@
         <v>1</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E25" s="10">
         <v>99</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G25" s="1">
         <v>2</v>
@@ -2648,7 +2071,7 @@
       </c>
       <c r="M25" s="9"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -2659,11 +2082,11 @@
         <v>0</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G26" s="1">
         <v>10</v>
@@ -2685,7 +2108,7 @@
       </c>
       <c r="M26" s="9"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -2696,11 +2119,11 @@
         <v>0</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G27" s="1">
         <v>3</v>
@@ -2722,7 +2145,7 @@
       </c>
       <c r="M27" s="9"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -2733,11 +2156,11 @@
         <v>0</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G28" s="1">
         <v>3</v>
@@ -2759,7 +2182,7 @@
       </c>
       <c r="M28" s="9"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -2770,11 +2193,11 @@
         <v>0</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G29" s="1">
         <v>4</v>
@@ -2796,7 +2219,7 @@
       </c>
       <c r="M29" s="9"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -2807,11 +2230,11 @@
         <v>0</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G30" s="1">
         <v>10</v>
@@ -2835,7 +2258,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -2846,11 +2269,11 @@
         <v>0</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G31" s="1">
         <v>10</v>
@@ -2874,7 +2297,7 @@
         <v>3004</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -2885,10 +2308,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="G32" s="1">
         <v>10</v>
@@ -2912,7 +2335,7 @@
         <v>3009</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -2923,10 +2346,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="G33" s="1">
         <v>10</v>
@@ -2950,7 +2373,7 @@
         <v>3023</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>14</v>
       </c>
@@ -2961,11 +2384,11 @@
         <v>0</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G36" s="1">
         <v>2</v>
@@ -2989,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>14</v>
       </c>
@@ -3000,11 +2423,11 @@
         <v>0</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G37" s="1">
         <v>2</v>
@@ -3029,15 +2452,15 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -3045,10 +2468,10 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/mobi_client/mobi_client/mobi_config/excel/013_讯息表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/013_讯息表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58692DBA-525B-4951-9983-AC266DFFE84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="9495" windowWidth="17790" windowHeight="18405" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="14340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Contact|联系人表" sheetId="4" r:id="rId1"/>
@@ -22,12 +16,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ADMIN</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,13 +39,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ADMIN</author>
     <author>DELL</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="G2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -119,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="H2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -137,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -332,6 +326,9 @@
     <t>aint</t>
   </si>
   <si>
+    <t>ID_OR_NULL:Quest</t>
+  </si>
+  <si>
     <t>询问稳定剂是什么</t>
   </si>
   <si>
@@ -513,17 +510,19 @@
   </si>
   <si>
     <t>chat_qiqiu</t>
-  </si>
-  <si>
-    <t>ID:Quest$Null</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,7 +553,144 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -568,29 +704,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -611,13 +726,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39939573351237523"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.399426252021851"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,8 +748,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -657,32 +952,274 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -700,34 +1237,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1014,12 +1592,11 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -1027,9 +1604,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1049,7 +1626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1069,7 +1646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1089,7 +1666,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
@@ -1101,7 +1678,7 @@
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>11</v>
       </c>
@@ -1121,7 +1698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>12</v>
       </c>
@@ -1141,7 +1718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>13</v>
       </c>
@@ -1161,7 +1738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>15</v>
       </c>
@@ -1181,7 +1758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>101</v>
       </c>
@@ -1199,22 +1776,22 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.625" style="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -1233,7 +1810,7 @@
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1280,7 +1857,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1327,7 +1904,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1374,7 +1951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" customFormat="1" spans="1:14">
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
@@ -1391,12 +1968,12 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
-      <c r="M4" s="15" t="s">
-        <v>113</v>
+      <c r="M4" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="N4" s="7"/>
     </row>
-    <row r="5" spans="1:15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" customFormat="1" spans="1:15">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1407,13 +1984,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E5" s="10">
         <v>99</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G5" s="1">
         <v>2</v>
@@ -1431,7 +2008,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1442,13 +2019,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6" s="10">
         <v>99</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -1461,7 +2038,7 @@
       </c>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1472,11 +2049,11 @@
         <v>0</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
@@ -1498,7 +2075,7 @@
       </c>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1509,11 +2086,11 @@
         <v>0</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G8" s="1">
         <v>2</v>
@@ -1526,7 +2103,7 @@
       </c>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1537,13 +2114,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E9" s="10">
         <v>99</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
@@ -1556,7 +2133,7 @@
       </c>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1567,11 +2144,11 @@
         <v>0</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>
@@ -1593,7 +2170,7 @@
       </c>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -1604,13 +2181,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E11" s="10">
         <v>99</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G11" s="1">
         <v>2</v>
@@ -1623,7 +2200,7 @@
       </c>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1634,13 +2211,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E12" s="10">
         <v>99</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G12" s="1">
         <v>2</v>
@@ -1653,7 +2230,7 @@
       </c>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -1664,13 +2241,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E13" s="10">
         <v>99</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G13" s="1">
         <v>2</v>
@@ -1683,7 +2260,7 @@
       </c>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -1694,11 +2271,11 @@
         <v>0</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G14" s="1">
         <v>2</v>
@@ -1720,7 +2297,7 @@
       </c>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -1731,13 +2308,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E15" s="10">
         <v>99</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G15" s="1">
         <v>2</v>
@@ -1750,7 +2327,7 @@
       </c>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -1761,13 +2338,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E16" s="10">
         <v>99</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G16" s="1">
         <v>2</v>
@@ -1780,7 +2357,7 @@
       </c>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -1791,11 +2368,11 @@
         <v>0</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G17" s="1">
         <v>2</v>
@@ -1817,7 +2394,7 @@
       </c>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -1828,11 +2405,11 @@
         <v>0</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G18" s="1">
         <v>2</v>
@@ -1854,7 +2431,7 @@
       </c>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -1865,13 +2442,13 @@
         <v>1</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E19" s="10">
         <v>99</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G19" s="1">
         <v>2</v>
@@ -1884,7 +2461,7 @@
       </c>
       <c r="M19" s="9"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -1895,13 +2472,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E20" s="10">
         <v>99</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G20" s="1">
         <v>2</v>
@@ -1914,7 +2491,7 @@
       </c>
       <c r="M20" s="9"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -1925,11 +2502,11 @@
         <v>0</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -1951,7 +2528,7 @@
       </c>
       <c r="M21" s="9"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1962,13 +2539,13 @@
         <v>1</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E22" s="10">
         <v>99</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G22" s="1">
         <v>2</v>
@@ -1981,7 +2558,7 @@
       </c>
       <c r="M22" s="9"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -1992,13 +2569,13 @@
         <v>1</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E23" s="10">
         <v>99</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G23" s="1">
         <v>2</v>
@@ -2011,7 +2588,7 @@
       </c>
       <c r="M23" s="9"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -2022,13 +2599,13 @@
         <v>1</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E24" s="10">
         <v>99</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G24" s="1">
         <v>2</v>
@@ -2041,7 +2618,7 @@
       </c>
       <c r="M24" s="9"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -2052,13 +2629,13 @@
         <v>1</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E25" s="10">
         <v>99</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G25" s="1">
         <v>2</v>
@@ -2071,7 +2648,7 @@
       </c>
       <c r="M25" s="9"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -2082,11 +2659,11 @@
         <v>0</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G26" s="1">
         <v>10</v>
@@ -2108,7 +2685,7 @@
       </c>
       <c r="M26" s="9"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -2119,11 +2696,11 @@
         <v>0</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G27" s="1">
         <v>3</v>
@@ -2145,7 +2722,7 @@
       </c>
       <c r="M27" s="9"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -2156,11 +2733,11 @@
         <v>0</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G28" s="1">
         <v>3</v>
@@ -2182,7 +2759,7 @@
       </c>
       <c r="M28" s="9"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -2193,11 +2770,11 @@
         <v>0</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G29" s="1">
         <v>4</v>
@@ -2219,7 +2796,7 @@
       </c>
       <c r="M29" s="9"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -2230,11 +2807,11 @@
         <v>0</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G30" s="1">
         <v>10</v>
@@ -2258,7 +2835,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -2269,11 +2846,11 @@
         <v>0</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G31" s="1">
         <v>10</v>
@@ -2297,7 +2874,7 @@
         <v>3004</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -2308,10 +2885,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G32" s="1">
         <v>10</v>
@@ -2335,7 +2912,7 @@
         <v>3009</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -2346,10 +2923,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G33" s="1">
         <v>10</v>
@@ -2373,7 +2950,7 @@
         <v>3023</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>14</v>
       </c>
@@ -2384,11 +2961,11 @@
         <v>0</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G36" s="1">
         <v>2</v>
@@ -2412,7 +2989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
         <v>14</v>
       </c>
@@ -2423,11 +3000,11 @@
         <v>0</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G37" s="1">
         <v>2</v>
@@ -2452,15 +3029,15 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2468,10 +3045,10 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/mobi_client/mobi_client/mobi_config/excel/013_讯息表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/013_讯息表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58692DBA-525B-4951-9983-AC266DFFE84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="9495" windowWidth="17790" windowHeight="18405" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="14340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Contact|联系人表" sheetId="4" r:id="rId1"/>
@@ -22,12 +16,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ADMIN</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,13 +39,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ADMIN</author>
     <author>DELL</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="G2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -119,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="H2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -137,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -332,6 +326,9 @@
     <t>aint</t>
   </si>
   <si>
+    <t>ID:Quest|Null</t>
+  </si>
+  <si>
     <t>询问稳定剂是什么</t>
   </si>
   <si>
@@ -513,17 +510,19 @@
   </si>
   <si>
     <t>chat_qiqiu</t>
-  </si>
-  <si>
-    <t>ID:Quest$Null</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -558,6 +557,150 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -568,29 +711,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -611,13 +733,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39939573351237523"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.399395733512375"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,8 +755,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -657,12 +965,254 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -673,16 +1223,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -700,34 +1250,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1014,22 +1608,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1049,7 +1642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1069,7 +1662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1089,7 +1682,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
@@ -1101,7 +1694,7 @@
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>11</v>
       </c>
@@ -1111,7 +1704,7 @@
       <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>17</v>
       </c>
       <c r="E5">
@@ -1121,7 +1714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>12</v>
       </c>
@@ -1131,7 +1724,7 @@
       <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E6">
@@ -1141,7 +1734,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>13</v>
       </c>
@@ -1151,7 +1744,7 @@
       <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="15" t="s">
         <v>21</v>
       </c>
       <c r="E7">
@@ -1161,7 +1754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>15</v>
       </c>
@@ -1171,7 +1764,7 @@
       <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="15" t="s">
         <v>23</v>
       </c>
       <c r="E8">
@@ -1181,7 +1774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>101</v>
       </c>
@@ -1191,7 +1784,7 @@
       <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="15" t="s">
         <v>25</v>
       </c>
       <c r="E9">
@@ -1199,22 +1792,22 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.625" style="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -1233,7 +1826,7 @@
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1280,7 +1873,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1327,7 +1920,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1374,7 +1967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" customFormat="1" spans="1:14">
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
@@ -1391,12 +1984,12 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
-      <c r="M4" s="15" t="s">
-        <v>113</v>
+      <c r="M4" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="N4" s="7"/>
     </row>
-    <row r="5" spans="1:15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" customFormat="1" spans="1:15">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1407,13 +2000,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E5" s="10">
         <v>99</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G5" s="1">
         <v>2</v>
@@ -1431,7 +2024,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1442,13 +2035,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6" s="10">
         <v>99</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -1461,7 +2054,7 @@
       </c>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1472,11 +2065,11 @@
         <v>0</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
@@ -1498,7 +2091,7 @@
       </c>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1509,11 +2102,11 @@
         <v>0</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G8" s="1">
         <v>2</v>
@@ -1526,7 +2119,7 @@
       </c>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1537,13 +2130,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E9" s="10">
         <v>99</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
@@ -1556,7 +2149,7 @@
       </c>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1567,11 +2160,11 @@
         <v>0</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>
@@ -1593,7 +2186,7 @@
       </c>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -1604,13 +2197,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E11" s="10">
         <v>99</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G11" s="1">
         <v>2</v>
@@ -1623,7 +2216,7 @@
       </c>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1634,13 +2227,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E12" s="10">
         <v>99</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G12" s="1">
         <v>2</v>
@@ -1653,7 +2246,7 @@
       </c>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -1664,13 +2257,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E13" s="10">
         <v>99</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G13" s="1">
         <v>2</v>
@@ -1683,7 +2276,7 @@
       </c>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -1694,11 +2287,11 @@
         <v>0</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G14" s="1">
         <v>2</v>
@@ -1720,7 +2313,7 @@
       </c>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -1731,13 +2324,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E15" s="10">
         <v>99</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G15" s="1">
         <v>2</v>
@@ -1750,7 +2343,7 @@
       </c>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -1761,13 +2354,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E16" s="10">
         <v>99</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G16" s="1">
         <v>2</v>
@@ -1780,7 +2373,7 @@
       </c>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -1791,11 +2384,11 @@
         <v>0</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G17" s="1">
         <v>2</v>
@@ -1817,7 +2410,7 @@
       </c>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -1828,11 +2421,11 @@
         <v>0</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G18" s="1">
         <v>2</v>
@@ -1854,7 +2447,7 @@
       </c>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -1865,13 +2458,13 @@
         <v>1</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E19" s="10">
         <v>99</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G19" s="1">
         <v>2</v>
@@ -1884,7 +2477,7 @@
       </c>
       <c r="M19" s="9"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -1895,13 +2488,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E20" s="10">
         <v>99</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G20" s="1">
         <v>2</v>
@@ -1914,7 +2507,7 @@
       </c>
       <c r="M20" s="9"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -1925,11 +2518,11 @@
         <v>0</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -1951,7 +2544,7 @@
       </c>
       <c r="M21" s="9"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1962,13 +2555,13 @@
         <v>1</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E22" s="10">
         <v>99</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G22" s="1">
         <v>2</v>
@@ -1981,7 +2574,7 @@
       </c>
       <c r="M22" s="9"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -1992,13 +2585,13 @@
         <v>1</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E23" s="10">
         <v>99</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G23" s="1">
         <v>2</v>
@@ -2011,7 +2604,7 @@
       </c>
       <c r="M23" s="9"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -2022,13 +2615,13 @@
         <v>1</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E24" s="10">
         <v>99</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G24" s="1">
         <v>2</v>
@@ -2041,7 +2634,7 @@
       </c>
       <c r="M24" s="9"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -2052,13 +2645,13 @@
         <v>1</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E25" s="10">
         <v>99</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G25" s="1">
         <v>2</v>
@@ -2071,7 +2664,7 @@
       </c>
       <c r="M25" s="9"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -2082,11 +2675,11 @@
         <v>0</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G26" s="1">
         <v>10</v>
@@ -2108,7 +2701,7 @@
       </c>
       <c r="M26" s="9"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -2119,11 +2712,11 @@
         <v>0</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G27" s="1">
         <v>3</v>
@@ -2145,7 +2738,7 @@
       </c>
       <c r="M27" s="9"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -2156,11 +2749,11 @@
         <v>0</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G28" s="1">
         <v>3</v>
@@ -2182,7 +2775,7 @@
       </c>
       <c r="M28" s="9"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -2193,11 +2786,11 @@
         <v>0</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G29" s="1">
         <v>4</v>
@@ -2219,7 +2812,7 @@
       </c>
       <c r="M29" s="9"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -2230,17 +2823,17 @@
         <v>0</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G30" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H30" s="1">
-        <v>6</v>
+        <v>1010</v>
       </c>
       <c r="I30" s="1">
         <v>1</v>
@@ -2258,7 +2851,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -2269,11 +2862,11 @@
         <v>0</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G31" s="1">
         <v>10</v>
@@ -2297,7 +2890,7 @@
         <v>3004</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -2308,16 +2901,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G32" s="1">
         <v>10</v>
       </c>
       <c r="H32" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I32" s="1">
         <v>1</v>
@@ -2335,7 +2928,7 @@
         <v>3009</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -2346,16 +2939,16 @@
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G33" s="1">
         <v>10</v>
       </c>
       <c r="H33" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I33" s="1">
         <v>1</v>
@@ -2364,7 +2957,7 @@
         <v>30</v>
       </c>
       <c r="K33" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L33" s="9">
         <v>999999</v>
@@ -2373,7 +2966,7 @@
         <v>3023</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>14</v>
       </c>
@@ -2384,11 +2977,11 @@
         <v>0</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G36" s="1">
         <v>2</v>
@@ -2412,7 +3005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
         <v>14</v>
       </c>
@@ -2423,11 +3016,11 @@
         <v>0</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G37" s="1">
         <v>2</v>
@@ -2452,15 +3045,15 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2468,10 +3061,10 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>